--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H2">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I2">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J2">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.167503066966525</v>
+        <v>0.02455766666666667</v>
       </c>
       <c r="N2">
-        <v>0.167503066966525</v>
+        <v>0.073673</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.050532535125095</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.050532535125095</v>
       </c>
       <c r="Q2">
-        <v>1.342118808249108</v>
+        <v>0.3050214621251111</v>
       </c>
       <c r="R2">
-        <v>1.342118808249108</v>
+        <v>2.745193159126</v>
       </c>
       <c r="S2">
-        <v>0.07987318303563874</v>
+        <v>0.004673405311216873</v>
       </c>
       <c r="T2">
-        <v>0.07987318303563874</v>
+        <v>0.0050381798720539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.5342388188646</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H3">
-        <v>53.5342388188646</v>
+        <v>37.261862</v>
       </c>
       <c r="I3">
-        <v>0.533659720844985</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J3">
-        <v>0.533659720844985</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.167503066966525</v>
+        <v>0.308263</v>
       </c>
       <c r="N3">
-        <v>0.167503066966525</v>
+        <v>0.9247890000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6343155922224082</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6343155922224082</v>
       </c>
       <c r="Q3">
-        <v>8.967149189878219</v>
+        <v>3.828817788568667</v>
       </c>
       <c r="R3">
-        <v>8.967149189878219</v>
+        <v>34.459360097118</v>
       </c>
       <c r="S3">
-        <v>0.533659720844985</v>
+        <v>0.05866346998703651</v>
       </c>
       <c r="T3">
-        <v>0.533659720844985</v>
+        <v>0.06324234557703437</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.53219526823085</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H4">
-        <v>5.53219526823085</v>
+        <v>37.261862</v>
       </c>
       <c r="I4">
-        <v>0.05514806687535596</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J4">
-        <v>0.05514806687535596</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.167503066966525</v>
+        <v>0.1531566666666667</v>
       </c>
       <c r="N4">
-        <v>0.167503066966525</v>
+        <v>0.45947</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3151518726524968</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3151518726524968</v>
       </c>
       <c r="Q4">
-        <v>0.9266596744863648</v>
+        <v>1.902300859237778</v>
       </c>
       <c r="R4">
-        <v>0.9266596744863648</v>
+        <v>17.12070773314</v>
       </c>
       <c r="S4">
-        <v>0.05514806687535596</v>
+        <v>0.0291462209811575</v>
       </c>
       <c r="T4">
-        <v>0.05514806687535596</v>
+        <v>0.03142117880108866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.45288857161591</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H5">
-        <v>4.45288857161591</v>
+        <v>172.32992</v>
       </c>
       <c r="I5">
-        <v>0.04438892425691857</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J5">
-        <v>0.04438892425691857</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.167503066966525</v>
+        <v>0.02455766666666667</v>
       </c>
       <c r="N5">
-        <v>0.167503066966525</v>
+        <v>0.073673</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.050532535125095</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.050532535125095</v>
       </c>
       <c r="Q5">
-        <v>0.7458724926058536</v>
+        <v>1.410673577351111</v>
       </c>
       <c r="R5">
-        <v>0.7458724926058536</v>
+        <v>12.69606219616</v>
       </c>
       <c r="S5">
-        <v>0.04438892425691857</v>
+        <v>0.02161372299134109</v>
       </c>
       <c r="T5">
-        <v>0.04438892425691857</v>
+        <v>0.02330074472114836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,672 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.7834816170495</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H6">
-        <v>28.7834816170495</v>
+        <v>172.32992</v>
       </c>
       <c r="I6">
-        <v>0.2869301049871016</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J6">
-        <v>0.2869301049871016</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.167503066966525</v>
+        <v>0.308263</v>
       </c>
       <c r="N6">
-        <v>0.167503066966525</v>
+        <v>0.9247890000000001</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6343155922224082</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6343155922224082</v>
       </c>
       <c r="Q6">
-        <v>4.821321448830384</v>
+        <v>17.70764604298667</v>
       </c>
       <c r="R6">
-        <v>4.821321448830384</v>
+        <v>159.36881438688</v>
       </c>
       <c r="S6">
-        <v>0.2869301049871016</v>
+        <v>0.2713088006656351</v>
       </c>
       <c r="T6">
-        <v>0.2869301049871016</v>
+        <v>0.2924853394042061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>57.44330666666667</v>
+      </c>
+      <c r="H7">
+        <v>172.32992</v>
+      </c>
+      <c r="I7">
+        <v>0.4277189525092218</v>
+      </c>
+      <c r="J7">
+        <v>0.4611038148683137</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1531566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.45947</v>
+      </c>
+      <c r="O7">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="P7">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="Q7">
+        <v>8.797825371377778</v>
+      </c>
+      <c r="R7">
+        <v>79.18042834240001</v>
+      </c>
+      <c r="S7">
+        <v>0.1347964288522456</v>
+      </c>
+      <c r="T7">
+        <v>0.1453177307429593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.62576466666667</v>
+      </c>
+      <c r="H8">
+        <v>49.877294</v>
+      </c>
+      <c r="I8">
+        <v>0.1237943123496749</v>
+      </c>
+      <c r="J8">
+        <v>0.1334568630839523</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02455766666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.073673</v>
+      </c>
+      <c r="O8">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="P8">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="Q8">
+        <v>0.4082899867624444</v>
+      </c>
+      <c r="R8">
+        <v>3.674609880862</v>
+      </c>
+      <c r="S8">
+        <v>0.00625564043709693</v>
+      </c>
+      <c r="T8">
+        <v>0.006743913621474814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.62576466666667</v>
+      </c>
+      <c r="H9">
+        <v>49.877294</v>
+      </c>
+      <c r="I9">
+        <v>0.1237943123496749</v>
+      </c>
+      <c r="J9">
+        <v>0.1334568630839523</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.308263</v>
+      </c>
+      <c r="N9">
+        <v>0.9247890000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="P9">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="Q9">
+        <v>5.125108093440667</v>
+      </c>
+      <c r="R9">
+        <v>46.125972840966</v>
+      </c>
+      <c r="S9">
+        <v>0.07852466255184982</v>
+      </c>
+      <c r="T9">
+        <v>0.08465376914324205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.62576466666667</v>
+      </c>
+      <c r="H10">
+        <v>49.877294</v>
+      </c>
+      <c r="I10">
+        <v>0.1237943123496749</v>
+      </c>
+      <c r="J10">
+        <v>0.1334568630839523</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1531566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.45947</v>
+      </c>
+      <c r="O10">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="P10">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="Q10">
+        <v>2.546346697131111</v>
+      </c>
+      <c r="R10">
+        <v>22.91712027418</v>
+      </c>
+      <c r="S10">
+        <v>0.03901400936072816</v>
+      </c>
+      <c r="T10">
+        <v>0.04205918031923544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.64071333333333</v>
+      </c>
+      <c r="H11">
+        <v>55.92214000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1387974830074432</v>
+      </c>
+      <c r="J11">
+        <v>0.149631080253504</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.02455766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.073673</v>
+      </c>
+      <c r="O11">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="P11">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="Q11">
+        <v>0.4577724244688889</v>
+      </c>
+      <c r="R11">
+        <v>4.119951820220001</v>
+      </c>
+      <c r="S11">
+        <v>0.007013788685348402</v>
+      </c>
+      <c r="T11">
+        <v>0.007561237818716099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>18.64071333333333</v>
+      </c>
+      <c r="H12">
+        <v>55.92214000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1387974830074432</v>
+      </c>
+      <c r="J12">
+        <v>0.149631080253504</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.308263</v>
+      </c>
+      <c r="N12">
+        <v>0.9247890000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="P12">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="Q12">
+        <v>5.746242214273334</v>
+      </c>
+      <c r="R12">
+        <v>51.71617992846001</v>
+      </c>
+      <c r="S12">
+        <v>0.088041407632846</v>
+      </c>
+      <c r="T12">
+        <v>0.09491332728588006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.64071333333333</v>
+      </c>
+      <c r="H13">
+        <v>55.92214000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1387974830074432</v>
+      </c>
+      <c r="J13">
+        <v>0.149631080253504</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1531566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.45947</v>
+      </c>
+      <c r="O13">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="P13">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="Q13">
+        <v>2.854949518422222</v>
+      </c>
+      <c r="R13">
+        <v>25.6945456658</v>
+      </c>
+      <c r="S13">
+        <v>0.04374228668924884</v>
+      </c>
+      <c r="T13">
+        <v>0.04715651514890781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>29.1711175</v>
+      </c>
+      <c r="H14">
+        <v>58.342235</v>
+      </c>
+      <c r="I14">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J14">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02455766666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.073673</v>
+      </c>
+      <c r="O14">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="P14">
+        <v>0.050532535125095</v>
+      </c>
+      <c r="Q14">
+        <v>0.7163745798591667</v>
+      </c>
+      <c r="R14">
+        <v>4.298247479155</v>
+      </c>
+      <c r="S14">
+        <v>0.0109759777000917</v>
+      </c>
+      <c r="T14">
+        <v>0.00788845909170182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29.1711175</v>
+      </c>
+      <c r="H15">
+        <v>58.342235</v>
+      </c>
+      <c r="I15">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J15">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.308263</v>
+      </c>
+      <c r="N15">
+        <v>0.9247890000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="P15">
+        <v>0.6343155922224082</v>
+      </c>
+      <c r="Q15">
+        <v>8.992376193902501</v>
+      </c>
+      <c r="R15">
+        <v>53.95425716341501</v>
+      </c>
+      <c r="S15">
+        <v>0.1377772513850407</v>
+      </c>
+      <c r="T15">
+        <v>0.09902081081204558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>29.1711175</v>
+      </c>
+      <c r="H16">
+        <v>58.342235</v>
+      </c>
+      <c r="I16">
+        <v>0.2172061558542492</v>
+      </c>
+      <c r="J16">
+        <v>0.156106537544053</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1531566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.45947</v>
+      </c>
+      <c r="O16">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="P16">
+        <v>0.3151518726524968</v>
+      </c>
+      <c r="Q16">
+        <v>4.467751119241667</v>
+      </c>
+      <c r="R16">
+        <v>26.80650671545</v>
+      </c>
+      <c r="S16">
+        <v>0.06845292676911671</v>
+      </c>
+      <c r="T16">
+        <v>0.04919726764030561</v>
       </c>
     </row>
   </sheetData>
